--- a/2021/Day16 (INCOMPLETE).xlsx
+++ b/2021/Day16 (INCOMPLETE).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Excel/Excel &amp; Financial Modelling/Advent-of-Code-Excel/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0FCDD-5D37-D842-85D5-E1D7198473A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386AB2CE-4171-3F47-80C3-D286305F3D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
+    <workbookView xWindow="-25300" yWindow="500" windowWidth="25300" windowHeight="16360" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="2" r:id="rId1"/>
-    <sheet name="Workings" sheetId="1" r:id="rId2"/>
+    <sheet name="Workings" sheetId="3" r:id="rId2"/>
+    <sheet name="Lookup" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Solutions!$A$1:$D$1</definedName>
@@ -37,20 +38,93 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P1 Solution:</t>
   </si>
   <si>
     <t>P2 Solution:</t>
+  </si>
+  <si>
+    <t>0 = 0000</t>
+  </si>
+  <si>
+    <t>1 = 0001</t>
+  </si>
+  <si>
+    <t>2 = 0010</t>
+  </si>
+  <si>
+    <t>3 = 0011</t>
+  </si>
+  <si>
+    <t>4 = 0100</t>
+  </si>
+  <si>
+    <t>5 = 0101</t>
+  </si>
+  <si>
+    <t>6 = 0110</t>
+  </si>
+  <si>
+    <t>7 = 0111</t>
+  </si>
+  <si>
+    <t>8 = 1000</t>
+  </si>
+  <si>
+    <t>9 = 1001</t>
+  </si>
+  <si>
+    <t>A = 1010</t>
+  </si>
+  <si>
+    <t>B = 1011</t>
+  </si>
+  <si>
+    <t>C = 1100</t>
+  </si>
+  <si>
+    <t>D = 1101</t>
+  </si>
+  <si>
+    <t>E = 1110</t>
+  </si>
+  <si>
+    <t>F = 1111</t>
+  </si>
+  <si>
+    <t>220D4B80491FE6FBDCDA61F23F1D9B763004A7C128012F9DA88CE27B000B30F4804D49CD515380352100763DC5E8EC000844338B10B667A1E60094B7BE8D600ACE774DF39DD364979F67A9AC0D1802B2A41401354F6BF1DC0627B15EC5CCC01694F5BABFC00964E93C95CF080263F0046741A740A76B704300824926693274BE7CC880267D00464852484A5F74520005D65A1EAD2334A700BA4EA41256E4BBBD8DC0999FC3A97286C20164B4FF14A93FD2947494E683E752E49B2737DF7C4080181973496509A5B9A8D37B7C300434016920D9EAEF16AEC0A4AB7DF5B1C01C933B9AAF19E1818027A00A80021F1FA0E43400043E174638572B984B066401D3E802735A4A9ECE371789685AB3E0E800725333EFFBB4B8D131A9F39ED413A1720058F339EE32052D48EC4E5EC3A6006CC2B4BE6FF3F40017A0E4D522226009CA676A7600980021F1921446700042A23C368B713CC015E007324A38DF30BB30533D001200F3E7AC33A00A4F73149558E7B98A4AACC402660803D1EA1045C1006E2CC668EC200F4568A5104802B7D004A53819327531FE607E118803B260F371D02CAEA3486050004EE3006A1E463858600F46D8531E08010987B1BE251002013445345C600B4F67617400D14F61867B39AA38018F8C05E430163C6004980126005B801CC0417080106005000CB4002D7A801AA0062007BC0019608018A004A002B880057CEF5604016827238DFDCC8048B9AF135802400087C32893120401C8D90463E280513D62991EE5CA543A6B75892CB639D503004F00353100662FC498AA00084C6485B1D25044C0139975D004A5EB5E52AC7233294006867F9EE6BA2115E47D7867458401424E354B36CDAFCAB34CBC2008BF2F2BA5CC646E57D4C62E41279E7F37961ACC015B005A5EFF884CBDFF10F9BFF438C014A007D67AE0529DED3901D9CD50B5C0108B13BAFD6070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +139,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,10 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,16 +544,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD7B9-7C10-6A4D-9C6E-4DED8BCB301F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCBF3B-A6F6-1945-973A-E7068D29A8C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD7B9-7C10-6A4D-9C6E-4DED8BCB301F}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="str" cm="1">
+        <f t="array" ref="B1:C1">_xlfn.TEXTSPLIT(A1," = ")</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="str" cm="1">
+        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2," = ")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="str" cm="1">
+        <f t="array" ref="B3:C3">_xlfn.TEXTSPLIT(A3," = ")</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>0010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="str" cm="1">
+        <f t="array" ref="B4:C4">_xlfn.TEXTSPLIT(A4," = ")</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>0011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.TEXTSPLIT(A5," = ")</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <v>0100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="str" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.TEXTSPLIT(A6," = ")</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>0101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="str" cm="1">
+        <f t="array" ref="B7:C7">_xlfn.TEXTSPLIT(A7," = ")</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v>0110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="str" cm="1">
+        <f t="array" ref="B8:C8">_xlfn.TEXTSPLIT(A8," = ")</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>0111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="str" cm="1">
+        <f t="array" ref="B9:C9">_xlfn.TEXTSPLIT(A9," = ")</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="str" cm="1">
+        <f t="array" ref="B10:C10">_xlfn.TEXTSPLIT(A10," = ")</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="str" cm="1">
+        <f t="array" ref="B11:C11">_xlfn.TEXTSPLIT(A11," = ")</f>
+        <v>A</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="str" cm="1">
+        <f t="array" ref="B12:C12">_xlfn.TEXTSPLIT(A12," = ")</f>
+        <v>B</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="str" cm="1">
+        <f t="array" ref="B13:C13">_xlfn.TEXTSPLIT(A13," = ")</f>
+        <v>C</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="str" cm="1">
+        <f t="array" ref="B14:C14">_xlfn.TEXTSPLIT(A14," = ")</f>
+        <v>D</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="str" cm="1">
+        <f t="array" ref="B15:C15">_xlfn.TEXTSPLIT(A15," = ")</f>
+        <v>E</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="str" cm="1">
+        <f t="array" ref="B16:C16">_xlfn.TEXTSPLIT(A16," = ")</f>
+        <v>F</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>